--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H2">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I2">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J2">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.22522549928054</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N2">
-        <v>2.22522549928054</v>
+        <v>132.145981</v>
       </c>
       <c r="O2">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P2">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q2">
-        <v>13.04335989225274</v>
+        <v>1705.505939826367</v>
       </c>
       <c r="R2">
-        <v>13.04335989225274</v>
+        <v>15349.5534584373</v>
       </c>
       <c r="S2">
-        <v>6.619625280076726E-05</v>
+        <v>0.005106823055034598</v>
       </c>
       <c r="T2">
-        <v>6.619625280076726E-05</v>
+        <v>0.005106823055034598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H3">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I3">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J3">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.32504872347729</v>
+        <v>2.226320666666667</v>
       </c>
       <c r="N3">
-        <v>70.32504872347729</v>
+        <v>6.678962</v>
       </c>
       <c r="O3">
-        <v>0.9693285032603981</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="P3">
-        <v>0.9693285032603981</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="Q3">
-        <v>412.2166136587491</v>
+        <v>86.20019524373267</v>
       </c>
       <c r="R3">
-        <v>412.2166136587491</v>
+        <v>775.801757193594</v>
       </c>
       <c r="S3">
-        <v>0.00209203728117924</v>
+        <v>0.0002581105900246787</v>
       </c>
       <c r="T3">
-        <v>0.00209203728117924</v>
+        <v>0.0002581105900246787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2507.84114620291</v>
+        <v>38.718679</v>
       </c>
       <c r="H4">
-        <v>2507.84114620291</v>
+        <v>116.156037</v>
       </c>
       <c r="I4">
-        <v>0.9233854143849219</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J4">
-        <v>0.9233854143849219</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.22522549928054</v>
+        <v>74.86619966666667</v>
       </c>
       <c r="N4">
-        <v>2.22522549928054</v>
+        <v>224.598599</v>
       </c>
       <c r="O4">
-        <v>0.03067149673960189</v>
+        <v>0.6180078422107282</v>
       </c>
       <c r="P4">
-        <v>0.03067149673960189</v>
+        <v>0.6180078422107284</v>
       </c>
       <c r="Q4">
-        <v>5580.512066675652</v>
+        <v>2898.720352843574</v>
       </c>
       <c r="R4">
-        <v>5580.512066675652</v>
+        <v>26088.48317559217</v>
       </c>
       <c r="S4">
-        <v>0.02832161272670307</v>
+        <v>0.008679683595535686</v>
       </c>
       <c r="T4">
-        <v>0.02832161272670307</v>
+        <v>0.008679683595535687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2507.84114620291</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H5">
-        <v>2507.84114620291</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I5">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J5">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>70.32504872347729</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N5">
-        <v>70.32504872347729</v>
+        <v>132.145981</v>
       </c>
       <c r="O5">
-        <v>0.9693285032603981</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P5">
-        <v>0.9693285032603981</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q5">
-        <v>176364.0507974608</v>
+        <v>110623.7224119455</v>
       </c>
       <c r="R5">
-        <v>176364.0507974608</v>
+        <v>995613.5017075095</v>
       </c>
       <c r="S5">
-        <v>0.8950638016582189</v>
+        <v>0.3312423386250918</v>
       </c>
       <c r="T5">
-        <v>0.8950638016582189</v>
+        <v>0.3312423386250919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.15430652481486</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H6">
-        <v>3.15430652481486</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I6">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J6">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.22522549928054</v>
+        <v>2.226320666666667</v>
       </c>
       <c r="N6">
-        <v>2.22522549928054</v>
+        <v>6.678962</v>
       </c>
       <c r="O6">
-        <v>0.03067149673960189</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="P6">
-        <v>0.03067149673960189</v>
+        <v>0.01837790134135009</v>
       </c>
       <c r="Q6">
-        <v>7.019043311565012</v>
+        <v>5591.177519715354</v>
       </c>
       <c r="R6">
-        <v>7.019043311565012</v>
+        <v>50320.59767743819</v>
       </c>
       <c r="S6">
-        <v>3.562229128921508E-05</v>
+        <v>0.01674175011397525</v>
       </c>
       <c r="T6">
-        <v>3.562229128921508E-05</v>
+        <v>0.01674175011397525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.15430652481486</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H7">
-        <v>3.15430652481486</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I7">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J7">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.32504872347729</v>
+        <v>74.86619966666667</v>
       </c>
       <c r="N7">
-        <v>70.32504872347729</v>
+        <v>224.598599</v>
       </c>
       <c r="O7">
-        <v>0.9693285032603981</v>
+        <v>0.6180078422107282</v>
       </c>
       <c r="P7">
-        <v>0.9693285032603981</v>
+        <v>0.6180078422107284</v>
       </c>
       <c r="Q7">
-        <v>221.8267600463874</v>
+        <v>188018.8325204371</v>
       </c>
       <c r="R7">
-        <v>221.8267600463874</v>
+        <v>1692169.492683934</v>
       </c>
       <c r="S7">
-        <v>0.001125791238400743</v>
+        <v>0.5629877248001905</v>
       </c>
       <c r="T7">
-        <v>0.001125791238400743</v>
+        <v>0.5629877248001908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>199.063207891447</v>
+        <v>5.092134333333333</v>
       </c>
       <c r="H8">
-        <v>199.063207891447</v>
+        <v>15.276403</v>
       </c>
       <c r="I8">
-        <v>0.07329493855140831</v>
+        <v>0.001847094980935658</v>
       </c>
       <c r="J8">
-        <v>0.07329493855140831</v>
+        <v>0.001847094980935659</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.22522549928054</v>
+        <v>44.04866033333334</v>
       </c>
       <c r="N8">
-        <v>2.22522549928054</v>
+        <v>132.145981</v>
       </c>
       <c r="O8">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="P8">
-        <v>0.03067149673960189</v>
+        <v>0.3636142564479216</v>
       </c>
       <c r="Q8">
-        <v>442.9605261686311</v>
+        <v>224.3016956207048</v>
       </c>
       <c r="R8">
-        <v>442.9605261686311</v>
+        <v>2018.715260586343</v>
       </c>
       <c r="S8">
-        <v>0.002248065468808841</v>
+        <v>0.0006716300680816073</v>
       </c>
       <c r="T8">
-        <v>0.002248065468808841</v>
+        <v>0.0006716300680816073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.092134333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.276403</v>
+      </c>
+      <c r="I9">
+        <v>0.001847094980935658</v>
+      </c>
+      <c r="J9">
+        <v>0.001847094980935659</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.226320666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.678962</v>
+      </c>
+      <c r="O9">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="P9">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="Q9">
+        <v>11.33672390374289</v>
+      </c>
+      <c r="R9">
+        <v>102.030515133686</v>
+      </c>
+      <c r="S9">
+        <v>3.394572932773845E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.394572932773845E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>199.063207891447</v>
-      </c>
-      <c r="H9">
-        <v>199.063207891447</v>
-      </c>
-      <c r="I9">
-        <v>0.07329493855140831</v>
-      </c>
-      <c r="J9">
-        <v>0.07329493855140831</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>70.32504872347729</v>
-      </c>
-      <c r="N9">
-        <v>70.32504872347729</v>
-      </c>
-      <c r="O9">
-        <v>0.9693285032603981</v>
-      </c>
-      <c r="P9">
-        <v>0.9693285032603981</v>
-      </c>
-      <c r="Q9">
-        <v>13999.1297940177</v>
-      </c>
-      <c r="R9">
-        <v>13999.1297940177</v>
-      </c>
-      <c r="S9">
-        <v>0.07104687308259947</v>
-      </c>
-      <c r="T9">
-        <v>0.07104687308259947</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.092134333333333</v>
+      </c>
+      <c r="H10">
+        <v>15.276403</v>
+      </c>
+      <c r="I10">
+        <v>0.001847094980935658</v>
+      </c>
+      <c r="J10">
+        <v>0.001847094980935659</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>74.86619966666667</v>
+      </c>
+      <c r="N10">
+        <v>224.598599</v>
+      </c>
+      <c r="O10">
+        <v>0.6180078422107282</v>
+      </c>
+      <c r="P10">
+        <v>0.6180078422107284</v>
+      </c>
+      <c r="Q10">
+        <v>381.2287457288219</v>
+      </c>
+      <c r="R10">
+        <v>3431.058711559398</v>
+      </c>
+      <c r="S10">
+        <v>0.001141519183526312</v>
+      </c>
+      <c r="T10">
+        <v>0.001141519183526313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>201.6251223333333</v>
+      </c>
+      <c r="H11">
+        <v>604.875367</v>
+      </c>
+      <c r="I11">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="J11">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>44.04866033333334</v>
+      </c>
+      <c r="N11">
+        <v>132.145981</v>
+      </c>
+      <c r="O11">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="P11">
+        <v>0.3636142564479216</v>
+      </c>
+      <c r="Q11">
+        <v>8881.316528327781</v>
+      </c>
+      <c r="R11">
+        <v>79931.84875495003</v>
+      </c>
+      <c r="S11">
+        <v>0.02659346469971349</v>
+      </c>
+      <c r="T11">
+        <v>0.02659346469971349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>201.6251223333333</v>
+      </c>
+      <c r="H12">
+        <v>604.875367</v>
+      </c>
+      <c r="I12">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="J12">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.226320666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.678962</v>
+      </c>
+      <c r="O12">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="P12">
+        <v>0.01837790134135009</v>
+      </c>
+      <c r="Q12">
+        <v>448.8821767698949</v>
+      </c>
+      <c r="R12">
+        <v>4039.939590929054</v>
+      </c>
+      <c r="S12">
+        <v>0.001344094908022422</v>
+      </c>
+      <c r="T12">
+        <v>0.001344094908022422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>201.6251223333333</v>
+      </c>
+      <c r="H13">
+        <v>604.875367</v>
+      </c>
+      <c r="I13">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="J13">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>74.86619966666667</v>
+      </c>
+      <c r="N13">
+        <v>224.598599</v>
+      </c>
+      <c r="O13">
+        <v>0.6180078422107282</v>
+      </c>
+      <c r="P13">
+        <v>0.6180078422107284</v>
+      </c>
+      <c r="Q13">
+        <v>15094.90666642343</v>
+      </c>
+      <c r="R13">
+        <v>135854.1599978108</v>
+      </c>
+      <c r="S13">
+        <v>0.04519891463147566</v>
+      </c>
+      <c r="T13">
+        <v>0.04519891463147566</v>
       </c>
     </row>
   </sheetData>
